--- a/biology/Biologie cellulaire et moléculaire/Micro-ARN_122/Micro-ARN_122.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Micro-ARN_122/Micro-ARN_122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le microARN 122 (miR-122 dans la terminologie anglophone) est un micro-ARN essentiellement synthétisé par le foie. 
 </t>
@@ -511,10 +523,12 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'humain, le brin mature majoritairement incorporé au complexe RISC est localisé en 5' du duplex miARN/miARN*. 
-Sa séquence est la suivante[1] :
+Sa séquence est la suivante :
 5'- uggagugugacaaugguguuug -3'
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que les miARNs sont connus pour leur rôle inhibiteur de la traduction, miR-122 favoriserait la traduction de l'ARN du virus de l'hépatite C[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que les miARNs sont connus pour leur rôle inhibiteur de la traduction, miR-122 favoriserait la traduction de l'ARN du virus de l'hépatite C. 
 Une autre particularité de miR-122 est qu'il interagirait avec la région 5'UTR du virus de l'hépatite C, et non pas avec la région 3'UTR comme c'est majoritairement le cas pour les ARNm ; ce faisant, il stimulerait la traduction en favorisant le recrutement des ribosomes sur l'ARN viral dans les phases précoces de l'initiation de la traduction.
-Il a été suggéré par la suite que miR-122 agirait en protégeant l'extrémité 5' du virus de la dégradation ou en l’empêchant d'induire la réponse immunitaire innée[3].
+Il a été suggéré par la suite que miR-122 agirait en protégeant l'extrémité 5' du virus de la dégradation ou en l’empêchant d'induire la réponse immunitaire innée.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Miravirsen (en) est un ADN antisens modifié (acide nucléique bloqué) séquestrant miR-122 sous la forme d'un hétéroduplex ADN/miARN stable. Les premiers essais chez l'être humain montrent une réduction du taux d'ARN viral circulant chez 36 patients souffrant d'un infection chronique par le virus de l'hépatite C. De plus, les patients ne présentent pas de signes de résistance virale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Miravirsen (en) est un ADN antisens modifié (acide nucléique bloqué) séquestrant miR-122 sous la forme d'un hétéroduplex ADN/miARN stable. Les premiers essais chez l'être humain montrent une réduction du taux d'ARN viral circulant chez 36 patients souffrant d'un infection chronique par le virus de l'hépatite C. De plus, les patients ne présentent pas de signes de résistance virale.
 </t>
         </is>
       </c>
